--- a/Retroplanning.xlsx
+++ b/Retroplanning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anas1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anas1\Documents\ps6_rip\2019-2020-ps6-rendu-rip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2251BA-E1B9-460D-A9BB-DBEF66DB8DC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCA562A-55D1-42F2-9400-0427BD696F3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Tâches</t>
   </si>
   <si>
-    <t>Eval num 1</t>
-  </si>
-  <si>
-    <t>Eval num 2</t>
-  </si>
-  <si>
     <t>Fin front/back-end</t>
   </si>
   <si>
@@ -45,21 +39,9 @@
     <t>Ajout d'une image optionnelle accueilli</t>
   </si>
   <si>
-    <t>Ajout des images optionnelles dans quiz</t>
-  </si>
-  <si>
-    <t>Tirage aléatoire des questions</t>
-  </si>
-  <si>
-    <t>Tirage aléatoire des réponses</t>
-  </si>
-  <si>
     <t>Passage automatique question suivante</t>
   </si>
   <si>
-    <t>Recherche par thème</t>
-  </si>
-  <si>
     <t>CSS avancé</t>
   </si>
   <si>
@@ -69,18 +51,12 @@
     <t>Sauvegarde résultats quiz</t>
   </si>
   <si>
-    <t>Compte utilisateur</t>
-  </si>
-  <si>
     <t>Option: refaire le quiz</t>
   </si>
   <si>
     <t>Visualisation des résultats d'un quiz</t>
   </si>
   <si>
-    <t xml:space="preserve">Affichage réponse juste </t>
-  </si>
-  <si>
     <t>Récap en fin de quiz</t>
   </si>
   <si>
@@ -91,13 +67,52 @@
   </si>
   <si>
     <t>Modification d'un quiz depuis résultats</t>
+  </si>
+  <si>
+    <t>Flow 3 : Statistiques</t>
+  </si>
+  <si>
+    <t>Flow 2 : Gérer les quizs &amp; acceuillis</t>
+  </si>
+  <si>
+    <t>Flow 1 : Déroulement quiz</t>
+  </si>
+  <si>
+    <t>Confort utilisateur</t>
+  </si>
+  <si>
+    <t>Filtres par thèmes</t>
+  </si>
+  <si>
+    <t>Ajout des images lors du déroulement</t>
+  </si>
+  <si>
+    <t>Ajout d'images pour création quiz</t>
+  </si>
+  <si>
+    <t>Eval 2</t>
+  </si>
+  <si>
+    <t>Compte acceuilli</t>
+  </si>
+  <si>
+    <t>Ordre aléatoire des questions</t>
+  </si>
+  <si>
+    <t>Défilement quiz</t>
+  </si>
+  <si>
+    <t>Widget Quiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affichage réponses juste </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,8 +126,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +163,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,11 +185,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,174 +479,409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B2" s="7">
         <v>43900</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="7">
         <v>43907</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D2" s="7">
         <v>43914</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E2" s="7">
         <v>43921</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F2" s="7">
         <v>43928</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G2" s="7">
         <v>43942</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H2" s="7">
         <v>43949</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Retroplanning.xlsx
+++ b/Retroplanning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anas1\Documents\ps6_rip\2019-2020-ps6-rendu-rip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anas1\Documents\clone-ps6\2019-2020-ps6-rendu-rip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCA562A-55D1-42F2-9400-0427BD696F3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E85F1E-5999-43EA-9A6B-1BF84F04EBB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Tâches</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t xml:space="preserve">Affichage réponses juste </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au fure et à meusure </t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -199,6 +202,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -491,12 +501,12 @@
     <col min="7" max="8" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="H1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -521,8 +531,14 @@
       <c r="H2" s="7">
         <v>43949</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="11">
+        <v>43956</v>
+      </c>
+      <c r="J2" s="11">
+        <v>43963</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -534,7 +550,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -546,7 +562,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -555,7 +571,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -566,8 +582,10 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>25</v>
       </c>
@@ -579,7 +597,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -590,7 +608,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -602,7 +620,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -614,7 +632,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -624,7 +642,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -636,7 +654,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -648,7 +666,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -660,7 +678,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -669,7 +687,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -680,8 +698,10 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -693,13 +713,13 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -711,7 +731,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -723,7 +743,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -734,7 +754,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -743,7 +763,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -752,7 +772,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -763,8 +783,10 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -773,20 +795,24 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
@@ -797,30 +823,38 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>18</v>
       </c>
@@ -830,6 +864,8 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -884,6 +920,9 @@
       <c r="G38" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B30:I31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Retroplanning.xlsx
+++ b/Retroplanning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anas1\Documents\clone-ps6\2019-2020-ps6-rendu-rip\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E85F1E-5999-43EA-9A6B-1BF84F04EBB0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA4E270-F6BF-42E4-AE77-A52039F56E71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
     <t xml:space="preserve">Affichage réponses juste </t>
   </si>
   <si>
-    <t xml:space="preserve">Au fure et à meusure </t>
+    <t xml:space="preserve">Au fur et à mesure </t>
   </si>
 </sst>
 </file>
@@ -203,10 +203,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -492,7 +492,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -830,29 +830,29 @@
       <c r="A30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
